--- a/Vendas Líquidas Eastman Kodak.xlsx
+++ b/Vendas Líquidas Eastman Kodak.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7020"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Dados" sheetId="1" r:id="rId1"/>
+    <sheet name="regressão" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Ano</t>
   </si>
@@ -54,12 +55,105 @@
       <t xml:space="preserve"> Moody´s Handbook of Common Stocks.</t>
     </r>
   </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>RESUMO DOS RESULTADOS</t>
+  </si>
+  <si>
+    <t>Estatística de regressão</t>
+  </si>
+  <si>
+    <t>R múltiplo</t>
+  </si>
+  <si>
+    <t>R-Quadrado</t>
+  </si>
+  <si>
+    <t>R-quadrado ajustado</t>
+  </si>
+  <si>
+    <t>Erro padrão</t>
+  </si>
+  <si>
+    <t>Observações</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regressão</t>
+  </si>
+  <si>
+    <t>Resíduo</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Interseção</t>
+  </si>
+  <si>
+    <t>gl</t>
+  </si>
+  <si>
+    <t>SQ</t>
+  </si>
+  <si>
+    <t>MQ</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>F de significação</t>
+  </si>
+  <si>
+    <t>Coeficientes</t>
+  </si>
+  <si>
+    <t>Stat t</t>
+  </si>
+  <si>
+    <t>valor-P</t>
+  </si>
+  <si>
+    <t>95% inferiores</t>
+  </si>
+  <si>
+    <t>95% superiores</t>
+  </si>
+  <si>
+    <t>Inferior 95,0%</t>
+  </si>
+  <si>
+    <t>Superior 95,0%</t>
+  </si>
+  <si>
+    <t>RESULTADOS DE RESÍDUOS</t>
+  </si>
+  <si>
+    <t>Observação</t>
+  </si>
+  <si>
+    <t>Previsto(a) Vendas Líquida (bilhões de dólares)</t>
+  </si>
+  <si>
+    <t>Resíduos</t>
+  </si>
+  <si>
+    <t>Resíduos padrão</t>
+  </si>
+  <si>
+    <t>Vendas Líquidas (previstas)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +169,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -84,7 +186,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -101,11 +203,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -117,6 +239,23 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -171,7 +310,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Plan1!$C$2</c:f>
+              <c:f>Dados!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -194,7 +333,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Plan1!$B$3:$B$25</c:f>
+              <c:f>Dados!$B$3:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -272,7 +411,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Plan1!$C$3:$C$25</c:f>
+              <c:f>Dados!$D$3:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -344,6 +483,112 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>20.100000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dados!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vendas Líquidas (previstas)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Dados!$E$3:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1.161302211302214</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9684055809055834</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7755089505089527</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5826123201123217</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3897156897156915</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1968190593190604</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0039224289224293</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.8110257985257991</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.6181291681291681</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.425232537732537</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.2323359073359068</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.039439276939277</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.846542646542645</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.653646016146014</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.460749385749384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.267852755352752</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.074956124956122</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.882059494559492</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.68916286416286</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.496266233766228</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.3033696033696</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.110472972972968</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18.110472972972968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -426,6 +671,7 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -484,7 +730,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.28595756780402454"/>
           <c:y val="1.4467045785943381E-2"/>
-          <c:w val="0.5114181977252843"/>
+          <c:w val="0.71404249474136161"/>
           <c:h val="7.8125546806649182E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -546,6 +792,303 @@
       <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>X Plotagem de resíduos</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dados!$C$3:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>regressão!$C$25:$C$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1.6386977886977858</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0315944190944166</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72449104949104726</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41738767988767833</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21028431028430816</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.19681905931906041</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.60392242892242898</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.81102579852579915</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.61812916812916807</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.425232537732537</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.46766409266409248</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.26056072306072409</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.6542646542643951E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.4536460161460152</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.8607493857493846</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.6678527553527527</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.5749561249561221</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.5820594945594912</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.31083713583714</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9037337662337706</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.596630396630399</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.2895270270270309</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.9895270270270338</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="117999808"/>
+        <c:axId val="118002160"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="117999808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>X</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="118002160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="118002160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Resíduos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="117999808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1114,16 +1657,128 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>607218</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>176213</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>27782</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>289718</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>321470</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>46038</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>214313</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>309563</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CaixaDeTexto 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8977313" y="1143000"/>
+          <a:ext cx="1317625" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Y = 1,1613+0,8071X</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>R^2 = 0,94</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1408,213 +2063,963 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C26"/>
+  <dimension ref="B2:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="8.7265625" style="1"/>
-    <col min="3" max="3" width="30.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="30.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.6328125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E2" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B3" s="1">
         <v>1970</v>
       </c>
       <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E3" s="10">
+        <f>regressão!$B$17+regressão!$B$18*Dados!C3</f>
+        <v>1.161302211302214</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4" s="1">
         <v>1971</v>
       </c>
       <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E4" s="10">
+        <f>regressão!$B$17+regressão!$B$18*Dados!C4</f>
+        <v>1.9684055809055834</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" s="1">
         <v>1972</v>
       </c>
       <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E5" s="10">
+        <f>regressão!$B$17+regressão!$B$18*Dados!C5</f>
+        <v>2.7755089505089527</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" s="1">
         <v>1973</v>
       </c>
       <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E6" s="10">
+        <f>regressão!$B$17+regressão!$B$18*Dados!C6</f>
+        <v>3.5826123201123217</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" s="1">
         <v>1974</v>
       </c>
       <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E7" s="10">
+        <f>regressão!$B$17+regressão!$B$18*Dados!C7</f>
+        <v>4.3897156897156915</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B8" s="1">
         <v>1975</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" s="10">
+        <f>regressão!$B$17+regressão!$B$18*Dados!C8</f>
+        <v>5.1968190593190604</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B9" s="1">
         <v>1976</v>
       </c>
       <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E9" s="10">
+        <f>regressão!$B$17+regressão!$B$18*Dados!C9</f>
+        <v>6.0039224289224293</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B10" s="1">
         <v>1977</v>
       </c>
       <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E10" s="10">
+        <f>regressão!$B$17+regressão!$B$18*Dados!C10</f>
+        <v>6.8110257985257991</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B11" s="1">
         <v>1978</v>
       </c>
       <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E11" s="10">
+        <f>regressão!$B$17+regressão!$B$18*Dados!C11</f>
+        <v>7.6181291681291681</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B12" s="1">
         <v>1979</v>
       </c>
       <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E12" s="10">
+        <f>regressão!$B$17+regressão!$B$18*Dados!C12</f>
+        <v>8.425232537732537</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B13" s="1">
         <v>1980</v>
       </c>
       <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E13" s="10">
+        <f>regressão!$B$17+regressão!$B$18*Dados!C13</f>
+        <v>9.2323359073359068</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B14" s="1">
         <v>1981</v>
       </c>
       <c r="C14" s="1">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E14" s="10">
+        <f>regressão!$B$17+regressão!$B$18*Dados!C14</f>
+        <v>10.039439276939277</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B15" s="1">
         <v>1982</v>
       </c>
       <c r="C15" s="1">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E15" s="10">
+        <f>regressão!$B$17+regressão!$B$18*Dados!C15</f>
+        <v>10.846542646542645</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B16" s="1">
         <v>1983</v>
       </c>
       <c r="C16" s="1">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E16" s="10">
+        <f>regressão!$B$17+regressão!$B$18*Dados!C16</f>
+        <v>11.653646016146014</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="1">
         <v>1984</v>
       </c>
       <c r="C17" s="1">
+        <v>14</v>
+      </c>
+      <c r="D17" s="1">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E17" s="10">
+        <f>regressão!$B$17+regressão!$B$18*Dados!C17</f>
+        <v>12.460749385749384</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="1">
         <v>1985</v>
       </c>
       <c r="C18" s="1">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E18" s="10">
+        <f>regressão!$B$17+regressão!$B$18*Dados!C18</f>
+        <v>13.267852755352752</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="1">
         <v>1986</v>
       </c>
       <c r="C19" s="1">
+        <v>16</v>
+      </c>
+      <c r="D19" s="1">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E19" s="10">
+        <f>regressão!$B$17+regressão!$B$18*Dados!C19</f>
+        <v>14.074956124956122</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="1">
         <v>1987</v>
       </c>
       <c r="C20" s="1">
+        <v>17</v>
+      </c>
+      <c r="D20" s="1">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E20" s="10">
+        <f>regressão!$B$17+regressão!$B$18*Dados!C20</f>
+        <v>14.882059494559492</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="1">
         <v>1988</v>
       </c>
       <c r="C21" s="1">
+        <v>18</v>
+      </c>
+      <c r="D21" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E21" s="10">
+        <f>regressão!$B$17+regressão!$B$18*Dados!C21</f>
+        <v>15.68916286416286</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="1">
         <v>1989</v>
       </c>
       <c r="C22" s="1">
+        <v>19</v>
+      </c>
+      <c r="D22" s="1">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E22" s="10">
+        <f>regressão!$B$17+regressão!$B$18*Dados!C22</f>
+        <v>16.496266233766228</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="1">
         <v>1990</v>
       </c>
       <c r="C23" s="1">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1">
         <v>18.899999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E23" s="10">
+        <f>regressão!$B$17+regressão!$B$18*Dados!C23</f>
+        <v>17.3033696033696</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="1">
         <v>1991</v>
       </c>
       <c r="C24" s="1">
+        <v>21</v>
+      </c>
+      <c r="D24" s="1">
         <v>19.399999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E24" s="10">
+        <f>regressão!$B$17+regressão!$B$18*Dados!C24</f>
+        <v>18.110472972972968</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="4">
         <v>1992</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="1">
+        <v>21</v>
+      </c>
+      <c r="D25" s="4">
         <v>20.100000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E25" s="11">
+        <f>regressão!$B$17+regressão!$B$18*Dados!C25</f>
+        <v>18.110472972972968</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="3" t="s">
         <v>2</v>
+      </c>
+      <c r="C26" s="11">
+        <v>22</v>
+      </c>
+      <c r="E26" s="11">
+        <f>regressão!$B$17+regressão!$B$18*Dados!C26</f>
+        <v>18.917576342576339</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.7265625" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.96915424971260011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.93925995973599286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.93636757686627825</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1.4099101805827932</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>645.52478415386031</v>
+      </c>
+      <c r="D12" s="5">
+        <v>645.52478415386031</v>
+      </c>
+      <c r="E12" s="5">
+        <v>324.73569442369944</v>
+      </c>
+      <c r="F12" s="5">
+        <v>2.9822508039238152E-14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="5">
+        <v>21</v>
+      </c>
+      <c r="C13" s="5">
+        <v>41.744781063531086</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1.9878467173110042</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="6">
+        <v>22</v>
+      </c>
+      <c r="C14" s="6">
+        <v>687.26956521739135</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1.161302211302214</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.57204690891104915</v>
+      </c>
+      <c r="D17" s="5">
+        <v>2.0300821369927053</v>
+      </c>
+      <c r="E17" s="5">
+        <v>5.5206353755825735E-2</v>
+      </c>
+      <c r="F17" s="5">
+        <v>-2.8334460302877895E-2</v>
+      </c>
+      <c r="G17" s="5">
+        <v>2.3509388829073057</v>
+      </c>
+      <c r="H17" s="5">
+        <v>-2.8334460302877895E-2</v>
+      </c>
+      <c r="I17" s="5">
+        <v>2.3509388829073057</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="6">
+        <v>0.80710336960336926</v>
+      </c>
+      <c r="C18" s="6">
+        <v>4.4788255431466528E-2</v>
+      </c>
+      <c r="D18" s="6">
+        <v>18.020424368579651</v>
+      </c>
+      <c r="E18" s="6">
+        <v>2.9822508039238259E-14</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.71396109352689174</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0.90024564567984677</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0.71396109352689174</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0.90024564567984677</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
+        <v>1</v>
+      </c>
+      <c r="B25" s="5">
+        <v>1.161302211302214</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1.6386977886977858</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1.1896223482156105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
+        <v>2</v>
+      </c>
+      <c r="B26" s="5">
+        <v>1.9684055809055834</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1.0315944190944166</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0.74889206766089345</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
+        <v>3</v>
+      </c>
+      <c r="B27" s="5">
+        <v>2.7755089505089527</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.72449104949104726</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0.52594856080304442</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
+        <v>4</v>
+      </c>
+      <c r="B28" s="5">
+        <v>3.5826123201123217</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0.41738767988767833</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0.30300505394519567</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="5">
+        <v>5</v>
+      </c>
+      <c r="B29" s="5">
+        <v>4.3897156897156915</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0.21028431028430816</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0.15265713831963551</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="5">
+        <v>6</v>
+      </c>
+      <c r="B30" s="5">
+        <v>5.1968190593190604</v>
+      </c>
+      <c r="C30" s="5">
+        <v>-0.19681905931906041</v>
+      </c>
+      <c r="D30" s="5">
+        <v>-0.14288195977050236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
+        <v>7</v>
+      </c>
+      <c r="B31" s="5">
+        <v>6.0039224289224293</v>
+      </c>
+      <c r="C31" s="5">
+        <v>-0.60392242892242898</v>
+      </c>
+      <c r="D31" s="5">
+        <v>-0.43842105786064023</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="5">
+        <v>8</v>
+      </c>
+      <c r="B32" s="5">
+        <v>6.8110257985257991</v>
+      </c>
+      <c r="C32" s="5">
+        <v>-0.81102579852579915</v>
+      </c>
+      <c r="D32" s="5">
+        <v>-0.58876897348620039</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="5">
+        <v>9</v>
+      </c>
+      <c r="B33" s="5">
+        <v>7.6181291681291681</v>
+      </c>
+      <c r="C33" s="5">
+        <v>-0.61812916812916807</v>
+      </c>
+      <c r="D33" s="5">
+        <v>-0.44873452418260196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="5">
+        <v>10</v>
+      </c>
+      <c r="B34" s="5">
+        <v>8.425232537732537</v>
+      </c>
+      <c r="C34" s="5">
+        <v>-0.425232537732537</v>
+      </c>
+      <c r="D34" s="5">
+        <v>-0.30870007487900347</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="5">
+        <v>11</v>
+      </c>
+      <c r="B35" s="5">
+        <v>9.2323359073359068</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0.46766409266409248</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0.33950351305061982</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="5">
+        <v>12</v>
+      </c>
+      <c r="B36" s="5">
+        <v>10.039439276939277</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0.26056072306072409</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0.18915559742506097</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="5">
+        <v>13</v>
+      </c>
+      <c r="B37" s="5">
+        <v>10.846542646542645</v>
+      </c>
+      <c r="C37" s="5">
+        <v>-4.6542646542643951E-2</v>
+      </c>
+      <c r="D37" s="5">
+        <v>-3.3787909432787089E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="5">
+        <v>14</v>
+      </c>
+      <c r="B38" s="5">
+        <v>11.653646016146014</v>
+      </c>
+      <c r="C38" s="5">
+        <v>-1.4536460161460152</v>
+      </c>
+      <c r="D38" s="5">
+        <v>-1.0552829198458211</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="5">
+        <v>15</v>
+      </c>
+      <c r="B39" s="5">
+        <v>12.460749385749384</v>
+      </c>
+      <c r="C39" s="5">
+        <v>-1.8607493857493846</v>
+      </c>
+      <c r="D39" s="5">
+        <v>-1.3508220179359598</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="5">
+        <v>16</v>
+      </c>
+      <c r="B40" s="5">
+        <v>13.267852755352752</v>
+      </c>
+      <c r="C40" s="5">
+        <v>-2.6678527553527527</v>
+      </c>
+      <c r="D40" s="5">
+        <v>-1.9367434809552551</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="5">
+        <v>17</v>
+      </c>
+      <c r="B41" s="5">
+        <v>14.074956124956122</v>
+      </c>
+      <c r="C41" s="5">
+        <v>-2.5749561249561221</v>
+      </c>
+      <c r="D41" s="5">
+        <v>-1.8693046228839463</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="5">
+        <v>18</v>
+      </c>
+      <c r="B42" s="5">
+        <v>14.882059494559492</v>
+      </c>
+      <c r="C42" s="5">
+        <v>-1.5820594945594912</v>
+      </c>
+      <c r="D42" s="5">
+        <v>-1.1485054437220326</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="5">
+        <v>19</v>
+      </c>
+      <c r="B43" s="5">
+        <v>15.68916286416286</v>
+      </c>
+      <c r="C43" s="5">
+        <v>1.31083713583714</v>
+      </c>
+      <c r="D43" s="5">
+        <v>0.95160996885338067</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="5">
+        <v>20</v>
+      </c>
+      <c r="B44" s="5">
+        <v>16.496266233766228</v>
+      </c>
+      <c r="C44" s="5">
+        <v>1.9037337662337706</v>
+      </c>
+      <c r="D44" s="5">
+        <v>1.3820267830861366</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="5">
+        <v>21</v>
+      </c>
+      <c r="B45" s="5">
+        <v>17.3033696033696</v>
+      </c>
+      <c r="C45" s="5">
+        <v>1.596630396630399</v>
+      </c>
+      <c r="D45" s="5">
+        <v>1.1590832762282859</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="5">
+        <v>22</v>
+      </c>
+      <c r="B46" s="5">
+        <v>18.110472972972968</v>
+      </c>
+      <c r="C46" s="5">
+        <v>1.2895270270270309</v>
+      </c>
+      <c r="D46" s="5">
+        <v>0.93613976937043786</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="6">
+        <v>23</v>
+      </c>
+      <c r="B47" s="6">
+        <v>18.110472972972968</v>
+      </c>
+      <c r="C47" s="6">
+        <v>1.9895270270270338</v>
+      </c>
+      <c r="D47" s="6">
+        <v>1.4443089079964659</v>
       </c>
     </row>
   </sheetData>
